--- a/to_import/sydney.xlsx
+++ b/to_import/sydney.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="108">
   <si>
     <t>(Do Not Modify) StockID</t>
   </si>
@@ -203,15 +203,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>5a0134a8-6306-e811-8162-e0071b67cc21</t>
-  </si>
-  <si>
-    <t>2ZjH8BUyFstyDpFM27UVcZdoI6RuiuuJJ/oALYnpBVcaRedF+3BLJPJQkPoUpgQc7qTQua5xsQGZ+W649oiFTQ==:new_aream2=240;new_totalarealivingopenm2=;new_frontagem=8;new_rebateincentive=</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
     <t>new_lot:VSIdXicsmxRKGFeqennBglP1trl15NX9p3DcDc7jYP7d52iJicQEWNoQtJIRE0CY2+/NDTR83uY34mjr1FS+wQ==:new_lotid=%28Do%20Not%20Modify%29%20StockID&amp;checksumLogicalName=%28Do%20Not%20Modify%29%20Row%20Checksum&amp;modifiedon=%28Do%20Not%20Modify%29%20Modified%20On&amp;new_lotname=Name&amp;new_lotstatus=Sale%20Status&amp;new_projectid=Estate&amp;new_unitno=Unit%20No.&amp;new_aream2=Area%20%28m2%29&amp;new_totalarealivingopenm2=Total%20Area%20%28living%20%2b%20open%29%20m2&amp;new_frontagem=Frontage%20%28m%29&amp;new_bathroomsinclensuite=Bathrooms%20%28incl%20ensuite%29%20old&amp;new_bedrooms=Bedrooms%20old&amp;e365_allocated=Allocated&amp;new_datesold=Contracted%20Date&amp;e365_dm=DM&amp;e365_estateprecinct=Estate%20%2f%20Precinct%20-%20DELETE&amp;e365_lotnumber=Lot%20Number&amp;new_lottype=Lot%20Type&amp;e365_stage=Stage&amp;e365_addressline1=Address%20Line%201&amp;new_aspect=Aspect&amp;ownerid=Owner&amp;new_customerownerid=Purchaser&amp;new_rebateincentive=Rebate%20%2f%20Incentive&amp;e365_stocktype=Stock%20Type&amp;statuscode=Inventory%20Status</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lot 240, Stage 1 Overwatch, sydney </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lot 241, Stage 1 Overwatch, sydney </t>
   </si>
 </sst>
 </file>
@@ -432,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Z11" totalsRowShown="0">
-  <autoFilter ref="A1:Z11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Z10" totalsRowShown="0">
+  <autoFilter ref="A1:Z10"/>
   <tableColumns count="26">
     <tableColumn id="1" name="(Do Not Modify) StockID"/>
     <tableColumn id="2" name="(Do Not Modify) Row Checksum"/>
@@ -755,7 +743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -764,10 +752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="dataSheet"/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D9:E15"/>
+      <selection activeCell="D11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,13 +879,13 @@
         <v>43092.087337962999</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>28</v>
@@ -930,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T2" s="20" t="s">
         <v>28</v>
@@ -939,7 +927,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W2" s="23" t="s">
         <v>28</v>
@@ -962,13 +950,13 @@
         <v>43168.566539351901</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>28</v>
@@ -1001,7 +989,7 @@
         <v>31</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T3" s="20" t="s">
         <v>28</v>
@@ -1010,7 +998,7 @@
         <v>32</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W3" s="23" t="s">
         <v>28</v>
@@ -1033,13 +1021,13 @@
         <v>43168.5680208333</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -1072,7 +1060,7 @@
         <v>31</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T4" s="20" t="s">
         <v>28</v>
@@ -1081,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W4" s="23" t="s">
         <v>28</v>
@@ -1104,13 +1092,13 @@
         <v>43174.499918981499</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -1143,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T5" s="20" t="s">
         <v>28</v>
@@ -1152,7 +1140,7 @@
         <v>32</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W5" s="23" t="s">
         <v>28</v>
@@ -1175,13 +1163,13 @@
         <v>43174.500173611101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -1214,7 +1202,7 @@
         <v>31</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T6" s="20" t="s">
         <v>28</v>
@@ -1223,7 +1211,7 @@
         <v>32</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W6" s="23" t="s">
         <v>28</v>
@@ -1246,13 +1234,13 @@
         <v>43092.087233796301</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>28</v>
@@ -1285,7 +1273,7 @@
         <v>31</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T7" s="20" t="s">
         <v>28</v>
@@ -1294,7 +1282,7 @@
         <v>32</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W7" s="23" t="s">
         <v>28</v>
@@ -1317,13 +1305,13 @@
         <v>43132.369861111103</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -1353,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T8" s="20" t="s">
         <v>28</v>
@@ -1362,7 +1350,7 @@
         <v>28</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W8" s="23" t="s">
         <v>28</v>
@@ -1385,13 +1373,13 @@
         <v>43132.370428240698</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>28</v>
@@ -1421,7 +1409,7 @@
         <v>28</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T9" s="20" t="s">
         <v>28</v>
@@ -1430,7 +1418,7 @@
         <v>28</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W9" s="23" t="s">
         <v>28</v>
@@ -1453,13 +1441,13 @@
         <v>43132.380798611099</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>28</v>
@@ -1492,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T10" s="20" t="s">
         <v>28</v>
@@ -1501,7 +1489,7 @@
         <v>61</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>28</v>
@@ -1510,77 +1498,6 @@
         <v>54</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3">
-        <v>43132.3811921296</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="8">
-        <v>240</v>
-      </c>
-      <c r="J11" s="10">
-        <v>8</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="V11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="W11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1589,7 +1506,7 @@
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="(Do Not Modify) Modified On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="C2:C1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 100 characters long." promptTitle="Text" prompt="Maximum Length: 100 characters." sqref="T2:T1048576 O2:O1048576 G2:G1048576 D2:D1048576">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 100 characters long." promptTitle="Text" prompt="Maximum Length: 100 characters." sqref="D2:D1048576 G2:G1048576 O2:O1048576 T2:T1048576">
       <formula1>100</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This Estate record must already exist in Microsoft Dynamics 365 or in this source file." sqref="F2:F1048576"/>
@@ -1689,61 +1606,61 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1751,13 +1668,13 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1768,10 +1685,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1779,43 +1696,43 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
         <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1826,22 +1743,22 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>95</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
